--- a/code/main/model_output/apollo/vehicle/0_vehicle_model_combine_output.xlsx
+++ b/code/main/model_output/apollo/vehicle/0_vehicle_model_combine_output.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xnw17/Documents/GitHub/Conjoint_Survey_25/code/main/model_output/apollo/vehicle/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53510DDF-B793-2B4D-8394-9ACC96312E8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0517E2D9-A7F3-F546-91C7-EDE618EA91AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="740" windowWidth="28880" windowHeight="13480" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="560" yWindow="2400" windowWidth="28880" windowHeight="12080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="coef_fit" sheetId="1" r:id="rId1"/>
     <sheet name="WTP" sheetId="2" r:id="rId2"/>
     <sheet name="Factor_analysis" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="189">
   <si>
     <t>variables/fit_indices</t>
   </si>
@@ -570,6 +571,96 @@
     <t>* between the other two groups
 * disutility for BEV, but positive utility for PHEV and HEV</t>
   </si>
+  <si>
+    <t>gamma_hhincome_a</t>
+  </si>
+  <si>
+    <t>gamma_hhincome_b</t>
+  </si>
+  <si>
+    <t>gamma_hhincome_c</t>
+  </si>
+  <si>
+    <t>HH_income</t>
+  </si>
+  <si>
+    <t>---</t>
+  </si>
+  <si>
+    <t>hhincome_num</t>
+  </si>
+  <si>
+    <t>next_veh_fuel_new_bev</t>
+  </si>
+  <si>
+    <t>original sample</t>
+  </si>
+  <si>
+    <t>reduced sample</t>
+  </si>
+  <si>
+    <t>powertrain</t>
+  </si>
+  <si>
+    <t>perc</t>
+  </si>
+  <si>
+    <t>bev</t>
+  </si>
+  <si>
+    <t>gas</t>
+  </si>
+  <si>
+    <t>hev</t>
+  </si>
+  <si>
+    <t>phev</t>
+  </si>
+  <si>
+    <t>Alternatives in the entire sample:</t>
+  </si>
+  <si>
+    <t>nn</t>
+  </si>
+  <si>
+    <t>Showing 1 to 10 of 10 entries, 3 total columns</t>
+  </si>
+  <si>
+    <t># of BEVs shown :</t>
+  </si>
+  <si>
+    <t>n of alternatives</t>
+  </si>
+  <si>
+    <t>n of BEVs</t>
+  </si>
+  <si>
+    <t>nn of respondents</t>
+  </si>
+  <si>
+    <t># of PHEVs shown :</t>
+  </si>
+  <si>
+    <t># of HEVs shown :</t>
+  </si>
+  <si>
+    <t># of ICEVs shown :</t>
+  </si>
+  <si>
+    <t>* include BEV in each choice set?</t>
+  </si>
+  <si>
+    <t>* only include BEV and ICEV?</t>
+  </si>
+  <si>
+    <t>chosen</t>
+  </si>
+  <si>
+    <t>chosen %</t>
+  </si>
+  <si>
+    <t>Make sense to combine hev and phev as hybrid?</t>
+  </si>
 </sst>
 </file>
 
@@ -578,7 +669,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -675,8 +766,61 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Lucida Grande"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Lucida Grande"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Lucida Grande"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Lucida Grande"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Lucida Grande"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color indexed="8"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -701,6 +845,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -715,7 +871,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -736,9 +892,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -770,11 +923,7 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -789,11 +938,41 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1178,18 +1357,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P67"/>
+  <dimension ref="A1:AA70"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:XFD32"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:XFD41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="26.83203125" customWidth="1"/>
+    <col min="2" max="11" width="0" hidden="1" customWidth="1"/>
+    <col min="18" max="20" width="8.83203125" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1239,7 +1420,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -1255,8 +1436,11 @@
       <c r="E2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Y2" s="34"/>
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="34"/>
+    </row>
+    <row r="3" spans="1:27">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -1272,8 +1456,11 @@
       <c r="E3" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Y3" s="34"/>
+      <c r="Z3" s="34"/>
+      <c r="AA3" s="34"/>
+    </row>
+    <row r="4" spans="1:27">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -1289,8 +1476,9 @@
       <c r="E4" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Y4" s="34"/>
+    </row>
+    <row r="5" spans="1:27">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -1306,8 +1494,9 @@
       <c r="E5" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Y5" s="34"/>
+    </row>
+    <row r="6" spans="1:27">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -1323,8 +1512,9 @@
       <c r="E6" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Y6" s="34"/>
+    </row>
+    <row r="7" spans="1:27">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -1340,8 +1530,9 @@
       <c r="E7" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Y7" s="34"/>
+    </row>
+    <row r="8" spans="1:27">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -1357,8 +1548,9 @@
       <c r="E8" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Y8" s="34"/>
+    </row>
+    <row r="9" spans="1:27">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -1374,8 +1566,9 @@
       <c r="E9" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Y9" s="34"/>
+    </row>
+    <row r="10" spans="1:27">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -1391,8 +1584,9 @@
       <c r="E10" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Y10" s="34"/>
+    </row>
+    <row r="11" spans="1:27">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -1408,8 +1602,9 @@
       <c r="E11" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Y11" s="34"/>
+    </row>
+    <row r="12" spans="1:27">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -1437,8 +1632,21 @@
       <c r="O12" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R12" s="41">
+        <v>-5.5651029999999997</v>
+      </c>
+      <c r="S12" s="41">
+        <v>0.74531999999999998</v>
+      </c>
+      <c r="T12" s="41">
+        <v>4.108E-14</v>
+      </c>
+      <c r="U12" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y12" s="34"/>
+    </row>
+    <row r="13" spans="1:27">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -1466,8 +1674,21 @@
       <c r="O13" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R13" s="41">
+        <v>-7.4271789999999998</v>
+      </c>
+      <c r="S13" s="41">
+        <v>3.0246599999999999</v>
+      </c>
+      <c r="T13" s="41">
+        <v>7.0340000000000003E-3</v>
+      </c>
+      <c r="U13" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y13" s="34"/>
+    </row>
+    <row r="14" spans="1:27">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -1495,8 +1716,21 @@
       <c r="O14" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R14" s="41">
+        <v>-3.0466579999999999</v>
+      </c>
+      <c r="S14" s="41">
+        <v>0.62012999999999996</v>
+      </c>
+      <c r="T14" s="41">
+        <v>4.4850000000000003E-7</v>
+      </c>
+      <c r="U14" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y14" s="34"/>
+    </row>
+    <row r="15" spans="1:27">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -1524,8 +1758,21 @@
       <c r="O15" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R15" s="41">
+        <v>-0.98622500000000002</v>
+      </c>
+      <c r="S15" s="41">
+        <v>0.31236000000000003</v>
+      </c>
+      <c r="T15" s="41">
+        <v>7.9613999999999998E-4</v>
+      </c>
+      <c r="U15" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y15" s="34"/>
+    </row>
+    <row r="16" spans="1:27">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -1553,8 +1800,18 @@
       <c r="O16" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="R16" s="41">
+        <v>1.4451909999999999</v>
+      </c>
+      <c r="S16" s="41">
+        <v>1.29321</v>
+      </c>
+      <c r="T16" s="41">
+        <v>0.131886</v>
+      </c>
+      <c r="Y16" s="34"/>
+    </row>
+    <row r="17" spans="1:25">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -1582,8 +1839,18 @@
       <c r="O17" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="R17" s="41">
+        <v>8.9702000000000004E-2</v>
+      </c>
+      <c r="S17" s="41">
+        <v>0.16283</v>
+      </c>
+      <c r="T17" s="41">
+        <v>0.29085</v>
+      </c>
+      <c r="Y17" s="34"/>
+    </row>
+    <row r="18" spans="1:25">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -1611,8 +1878,21 @@
       <c r="O18" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="R18" s="41">
+        <v>-0.24464</v>
+      </c>
+      <c r="S18" s="41">
+        <v>7.8850000000000003E-2</v>
+      </c>
+      <c r="T18" s="41">
+        <v>9.5967000000000003E-4</v>
+      </c>
+      <c r="U18" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y18" s="34"/>
+    </row>
+    <row r="19" spans="1:25">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -1640,8 +1920,21 @@
       <c r="O19" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="R19" s="41">
+        <v>-0.18715300000000001</v>
+      </c>
+      <c r="S19" s="41">
+        <v>3.1850000000000003E-2</v>
+      </c>
+      <c r="T19" s="41">
+        <v>2.09E-9</v>
+      </c>
+      <c r="U19" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y19" s="34"/>
+    </row>
+    <row r="20" spans="1:25">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -1669,8 +1962,21 @@
       <c r="O20" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="R20" s="41">
+        <v>-6.3624E-2</v>
+      </c>
+      <c r="S20" s="41">
+        <v>2.6339999999999999E-2</v>
+      </c>
+      <c r="T20" s="41">
+        <v>7.8530000000000006E-3</v>
+      </c>
+      <c r="U20" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y20" s="34"/>
+    </row>
+    <row r="21" spans="1:25">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -1698,8 +2004,21 @@
       <c r="O21" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="R21" s="41">
+        <v>-0.51141499999999995</v>
+      </c>
+      <c r="S21" s="41">
+        <v>0.13835</v>
+      </c>
+      <c r="T21" s="41">
+        <v>1.093E-4</v>
+      </c>
+      <c r="U21" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y21" s="34"/>
+    </row>
+    <row r="22" spans="1:25">
       <c r="A22" t="s">
         <v>36</v>
       </c>
@@ -1727,8 +2046,21 @@
       <c r="O22" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="R22" s="41">
+        <v>-6.4670160000000001</v>
+      </c>
+      <c r="S22" s="41">
+        <v>0.82945999999999998</v>
+      </c>
+      <c r="T22" s="41">
+        <v>3.2199999999999999E-15</v>
+      </c>
+      <c r="U22" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y22" s="34"/>
+    </row>
+    <row r="23" spans="1:25">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -1756,8 +2088,18 @@
       <c r="O23" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="R23" s="41">
+        <v>-0.30296699999999999</v>
+      </c>
+      <c r="S23" s="41">
+        <v>0.39134999999999998</v>
+      </c>
+      <c r="T23" s="41">
+        <v>0.219421</v>
+      </c>
+      <c r="Y23" s="34"/>
+    </row>
+    <row r="24" spans="1:25">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -1785,8 +2127,18 @@
       <c r="O24" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="R24" s="41">
+        <v>0.42573100000000003</v>
+      </c>
+      <c r="S24" s="41">
+        <v>0.37258000000000002</v>
+      </c>
+      <c r="T24" s="41">
+        <v>0.12659200000000001</v>
+      </c>
+      <c r="Y24" s="34"/>
+    </row>
+    <row r="25" spans="1:25">
       <c r="A25" t="s">
         <v>39</v>
       </c>
@@ -1814,8 +2166,21 @@
       <c r="O25" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="R25" s="41">
+        <v>0.68050900000000003</v>
+      </c>
+      <c r="S25" s="41">
+        <v>0.20741000000000001</v>
+      </c>
+      <c r="T25" s="41">
+        <v>5.1723000000000003E-4</v>
+      </c>
+      <c r="U25" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y25" s="34"/>
+    </row>
+    <row r="26" spans="1:25">
       <c r="A26" t="s">
         <v>40</v>
       </c>
@@ -1843,8 +2208,21 @@
       <c r="O26" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="R26" s="41">
+        <v>0.33346399999999998</v>
+      </c>
+      <c r="S26" s="41">
+        <v>0.19982</v>
+      </c>
+      <c r="T26" s="41">
+        <v>4.7577000000000001E-2</v>
+      </c>
+      <c r="U26" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y26" s="34"/>
+    </row>
+    <row r="27" spans="1:25">
       <c r="A27" t="s">
         <v>41</v>
       </c>
@@ -1872,8 +2250,21 @@
       <c r="O27" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="R27" s="41">
+        <v>-9.8746E-2</v>
+      </c>
+      <c r="S27" s="41">
+        <v>0.10292999999999999</v>
+      </c>
+      <c r="T27" s="41">
+        <v>0.168682</v>
+      </c>
+      <c r="U27" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y27" s="34"/>
+    </row>
+    <row r="28" spans="1:25">
       <c r="A28" t="s">
         <v>42</v>
       </c>
@@ -1901,8 +2292,21 @@
       <c r="O28" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="R28" s="41">
+        <v>-0.16428899999999999</v>
+      </c>
+      <c r="S28" s="41">
+        <v>4.895E-2</v>
+      </c>
+      <c r="T28" s="41">
+        <v>3.9481E-4</v>
+      </c>
+      <c r="U28" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y28" s="34"/>
+    </row>
+    <row r="29" spans="1:25">
       <c r="A29" t="s">
         <v>43</v>
       </c>
@@ -1930,8 +2334,21 @@
       <c r="O29" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="R29" s="41">
+        <v>-0.17396300000000001</v>
+      </c>
+      <c r="S29" s="41">
+        <v>2.5409999999999999E-2</v>
+      </c>
+      <c r="T29" s="41">
+        <v>3.7899999999999998E-12</v>
+      </c>
+      <c r="U29" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y29" s="34"/>
+    </row>
+    <row r="30" spans="1:25">
       <c r="A30" t="s">
         <v>44</v>
       </c>
@@ -1959,8 +2376,21 @@
       <c r="O30" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="R30" s="41">
+        <v>-4.5303999999999997E-2</v>
+      </c>
+      <c r="S30" s="41">
+        <v>2.205E-2</v>
+      </c>
+      <c r="T30" s="41">
+        <v>1.9966000000000001E-2</v>
+      </c>
+      <c r="U30" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y30" s="34"/>
+    </row>
+    <row r="31" spans="1:25">
       <c r="A31" t="s">
         <v>45</v>
       </c>
@@ -1988,8 +2418,21 @@
       <c r="O31" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="R31" s="41">
+        <v>-0.50455799999999995</v>
+      </c>
+      <c r="S31" s="41">
+        <v>0.16958999999999999</v>
+      </c>
+      <c r="T31" s="41">
+        <v>1.4649999999999999E-3</v>
+      </c>
+      <c r="U31" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y31" s="34"/>
+    </row>
+    <row r="32" spans="1:25">
       <c r="A32" t="s">
         <v>54</v>
       </c>
@@ -2005,8 +2448,21 @@
       <c r="O32" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="R32" s="41">
+        <v>-8.7999530000000004</v>
+      </c>
+      <c r="S32" s="41">
+        <v>3.4648500000000002</v>
+      </c>
+      <c r="T32" s="41">
+        <v>5.5459999999999997E-3</v>
+      </c>
+      <c r="U32" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y32" s="34"/>
+    </row>
+    <row r="33" spans="1:25">
       <c r="A33" t="s">
         <v>55</v>
       </c>
@@ -2022,8 +2478,18 @@
       <c r="O33" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="R33" s="41">
+        <v>0.84268600000000005</v>
+      </c>
+      <c r="S33" s="41">
+        <v>1.16185</v>
+      </c>
+      <c r="T33" s="41">
+        <v>0.23413600000000001</v>
+      </c>
+      <c r="Y33" s="34"/>
+    </row>
+    <row r="34" spans="1:25">
       <c r="A34" t="s">
         <v>56</v>
       </c>
@@ -2039,8 +2505,17 @@
       <c r="O34" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="R34" s="41">
+        <v>0.45891900000000002</v>
+      </c>
+      <c r="S34" s="41">
+        <v>1.5282199999999999</v>
+      </c>
+      <c r="T34" s="41">
+        <v>0.38197599999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25">
       <c r="A35" t="s">
         <v>57</v>
       </c>
@@ -2056,8 +2531,17 @@
       <c r="O35" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="R35" s="41">
+        <v>0.30454199999999998</v>
+      </c>
+      <c r="S35" s="41">
+        <v>0.69574000000000003</v>
+      </c>
+      <c r="T35" s="41">
+        <v>0.330793</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25">
       <c r="A36" t="s">
         <v>58</v>
       </c>
@@ -2073,8 +2557,17 @@
       <c r="O36" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="R36" s="41">
+        <v>-0.14985799999999999</v>
+      </c>
+      <c r="S36" s="41">
+        <v>0.64697000000000005</v>
+      </c>
+      <c r="T36" s="41">
+        <v>0.40841300000000003</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25">
       <c r="A37" t="s">
         <v>59</v>
       </c>
@@ -2090,8 +2583,17 @@
       <c r="O37" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="R37" s="41">
+        <v>-0.17888699999999999</v>
+      </c>
+      <c r="S37" s="41">
+        <v>0.35716999999999999</v>
+      </c>
+      <c r="T37" s="41">
+        <v>0.30823800000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25">
       <c r="A38" t="s">
         <v>60</v>
       </c>
@@ -2107,8 +2609,20 @@
       <c r="O38" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="R38" s="41">
+        <v>-0.19966600000000001</v>
+      </c>
+      <c r="S38" s="41">
+        <v>0.15431</v>
+      </c>
+      <c r="T38" s="41">
+        <v>9.7848000000000004E-2</v>
+      </c>
+      <c r="U38" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25">
       <c r="A39" t="s">
         <v>61</v>
       </c>
@@ -2124,8 +2638,17 @@
       <c r="O39" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="R39" s="41">
+        <v>-4.9636E-2</v>
+      </c>
+      <c r="S39" s="41">
+        <v>6.2829999999999997E-2</v>
+      </c>
+      <c r="T39" s="41">
+        <v>0.21475</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25">
       <c r="A40" t="s">
         <v>62</v>
       </c>
@@ -2141,8 +2664,17 @@
       <c r="O40" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="R40" s="41">
+        <v>7.0809999999999998E-2</v>
+      </c>
+      <c r="S40" s="41">
+        <v>5.6439999999999997E-2</v>
+      </c>
+      <c r="T40" s="41">
+        <v>0.10481699999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25">
       <c r="A41" t="s">
         <v>63</v>
       </c>
@@ -2158,9 +2690,21 @@
       <c r="O41" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+      <c r="R41" s="41">
+        <v>-3.4321459999999999</v>
+      </c>
+      <c r="S41" s="41">
+        <v>1.08283</v>
+      </c>
+      <c r="T41" s="41">
+        <v>7.6325000000000004E-4</v>
+      </c>
+      <c r="U41" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25">
+      <c r="A42" s="34" t="s">
         <v>46</v>
       </c>
       <c r="G42">
@@ -2175,27 +2719,36 @@
       <c r="O42" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+      <c r="R42" s="41">
+        <v>0</v>
+      </c>
+      <c r="S42" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="T42" s="41" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25">
+      <c r="A43" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="R43" s="41">
+        <v>0</v>
+      </c>
+      <c r="S43" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="T43" s="41" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25">
+      <c r="A44" s="34" t="s">
         <v>47</v>
-      </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
-      <c r="J43" t="s">
-        <v>82</v>
-      </c>
-      <c r="L43">
-        <v>0</v>
-      </c>
-      <c r="O43" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>48</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -2209,10 +2762,19 @@
       <c r="O44" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>49</v>
+      <c r="R44" s="41">
+        <v>0</v>
+      </c>
+      <c r="S44" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="T44" s="41" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25">
+      <c r="A45" s="34" t="s">
+        <v>48</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -2226,45 +2788,51 @@
       <c r="O45" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>50</v>
+      <c r="R45" s="41">
+        <v>0</v>
+      </c>
+      <c r="S45" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="T45" s="41" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25">
+      <c r="A46" s="34" t="s">
+        <v>49</v>
       </c>
       <c r="G46">
-        <v>-1.778</v>
-      </c>
-      <c r="H46">
-        <v>0.4</v>
-      </c>
-      <c r="I46">
         <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L46">
-        <v>0.22900000000000001</v>
-      </c>
-      <c r="M46">
-        <v>0.38500000000000001</v>
-      </c>
-      <c r="N46">
-        <v>0.55200000000000005</v>
+        <v>0</v>
       </c>
       <c r="O46" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>51</v>
+      <c r="R46" s="41">
+        <v>0</v>
+      </c>
+      <c r="S46" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="T46" s="41" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25">
+      <c r="A47" s="34" t="s">
+        <v>50</v>
       </c>
       <c r="G47">
-        <v>0.83599999999999997</v>
+        <v>-1.778</v>
       </c>
       <c r="H47">
-        <v>0.14899999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="I47">
         <v>0</v>
@@ -2273,298 +2841,469 @@
         <v>80</v>
       </c>
       <c r="L47">
-        <v>0</v>
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="M47">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="N47">
+        <v>0.55200000000000005</v>
       </c>
       <c r="O47" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+      <c r="R47" s="41">
+        <v>-0.116107</v>
+      </c>
+      <c r="S47" s="41">
+        <v>0.42621999999999999</v>
+      </c>
+      <c r="T47" s="41">
+        <v>0.392652</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25">
+      <c r="A48" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="R48" s="41">
+        <v>-1.2869999999999999E-6</v>
+      </c>
+      <c r="S48" s="41">
+        <v>3.9770000000000002E-6</v>
+      </c>
+      <c r="T48" s="41">
+        <v>0.373056</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21">
+      <c r="A49" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="G49">
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="H49">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49" t="s">
+        <v>80</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="O49" t="s">
+        <v>82</v>
+      </c>
+      <c r="R49" s="41">
+        <v>0</v>
+      </c>
+      <c r="S49" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="T49" s="41" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21">
+      <c r="A50" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="G48">
+      <c r="G50">
         <v>0.69499999999999995</v>
       </c>
-      <c r="H48">
+      <c r="H50">
         <v>0.17399999999999999</v>
       </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-      <c r="J48" t="s">
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50" t="s">
         <v>80</v>
       </c>
-      <c r="L48">
+      <c r="L50">
         <v>1.2829999999999999</v>
       </c>
-      <c r="M48">
+      <c r="M50">
         <v>0.35099999999999998</v>
       </c>
-      <c r="N48">
-        <v>0</v>
-      </c>
-      <c r="O48" t="s">
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+      <c r="R50" s="41">
+        <v>1.5849839999999999</v>
+      </c>
+      <c r="S50" s="41">
+        <v>0.28284999999999999</v>
+      </c>
+      <c r="T50" s="41">
+        <v>1.049E-8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21">
+      <c r="A51" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="G49">
+      <c r="G51">
         <v>-0.27</v>
       </c>
-      <c r="H49">
+      <c r="H51">
         <v>0.157</v>
       </c>
-      <c r="I49">
+      <c r="I51">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="J49" t="s">
+      <c r="J51" t="s">
         <v>81</v>
       </c>
-      <c r="L49">
+      <c r="L51">
         <v>-0.47</v>
       </c>
-      <c r="M49">
+      <c r="M51">
         <v>0.155</v>
       </c>
-      <c r="N49">
+      <c r="N51">
         <v>2E-3</v>
       </c>
-      <c r="O49" t="s">
+      <c r="O51" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+      <c r="R51" s="41">
+        <v>-0.527362</v>
+      </c>
+      <c r="S51" s="41">
+        <v>0.24204000000000001</v>
+      </c>
+      <c r="T51" s="41">
+        <v>1.4671999999999999E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21">
+      <c r="A52" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="L50">
+      <c r="L52">
         <v>-1.3919999999999999</v>
       </c>
-      <c r="M50">
+      <c r="M52">
         <v>0.505</v>
       </c>
-      <c r="N50">
+      <c r="N52">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="O50" t="s">
+      <c r="O52" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+      <c r="R52" s="41">
+        <v>-0.52310900000000005</v>
+      </c>
+      <c r="S52" s="41">
+        <v>0.72397</v>
+      </c>
+      <c r="T52" s="41">
+        <v>0.23497599999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21">
+      <c r="A53" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="R53" s="41">
+        <v>-1.155E-5</v>
+      </c>
+      <c r="S53" s="41">
+        <v>1.256E-5</v>
+      </c>
+      <c r="T53" s="41">
+        <v>0.17876300000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21">
+      <c r="A54" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="L51">
-        <v>0</v>
-      </c>
-      <c r="O51" t="s">
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="O54" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+      <c r="R54" s="41">
+        <v>0</v>
+      </c>
+      <c r="S54" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="T54" s="41" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21">
+      <c r="A55" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="L52">
+      <c r="L55">
         <v>0.77800000000000002</v>
       </c>
-      <c r="M52">
+      <c r="M55">
         <v>0.48599999999999999</v>
       </c>
-      <c r="N52">
+      <c r="N55">
         <v>0.109</v>
       </c>
-      <c r="O52" t="s">
+      <c r="O55" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+      <c r="R55" s="41">
+        <v>0.97402299999999997</v>
+      </c>
+      <c r="S55" s="41">
+        <v>0.68586999999999998</v>
+      </c>
+      <c r="T55" s="41">
+        <v>7.7785000000000007E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21">
+      <c r="A56" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="L53">
+      <c r="L56">
         <v>-0.52600000000000002</v>
       </c>
-      <c r="M53">
+      <c r="M56">
         <v>0.24399999999999999</v>
       </c>
-      <c r="N53">
+      <c r="N56">
         <v>3.1E-2</v>
       </c>
-      <c r="O53" t="s">
+      <c r="O56" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+      <c r="R56" s="41">
+        <v>-1.101E-3</v>
+      </c>
+      <c r="S56" s="41">
+        <v>0.67849999999999999</v>
+      </c>
+      <c r="T56" s="41">
+        <v>0.49935299999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21">
+      <c r="A59" t="s">
         <v>68</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F59" t="s">
         <v>83</v>
       </c>
-      <c r="K56" t="s">
+      <c r="K59" t="s">
         <v>83</v>
       </c>
-      <c r="P56" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+      <c r="P59">
+        <v>334</v>
+      </c>
+      <c r="U59">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21">
+      <c r="A60" t="s">
         <v>69</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F60" t="s">
         <v>84</v>
       </c>
-      <c r="K57" t="s">
+      <c r="K60" t="s">
         <v>84</v>
       </c>
-      <c r="P57" t="s">
+      <c r="P60" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+      <c r="U60">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21">
+      <c r="A61" t="s">
         <v>70</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F61" t="s">
         <v>85</v>
       </c>
-      <c r="K58" t="s">
+      <c r="K61" t="s">
         <v>96</v>
       </c>
-      <c r="P58" t="s">
+      <c r="P61" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+      <c r="U61">
+        <v>-1206.77</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21">
+      <c r="A62" t="s">
         <v>71</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F62" t="s">
         <v>85</v>
       </c>
-      <c r="K59" t="s">
+      <c r="K62" t="s">
         <v>85</v>
       </c>
-      <c r="P59" t="s">
+      <c r="P62" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
+      <c r="U62">
+        <v>-1530.47</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21">
+      <c r="A63" t="s">
         <v>72</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F63" t="s">
         <v>86</v>
       </c>
-      <c r="K60" t="s">
+      <c r="K63" t="s">
         <v>86</v>
       </c>
-      <c r="P60" t="s">
+      <c r="P63" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
+      <c r="U63">
+        <v>-1517.49</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21">
+      <c r="A64" t="s">
         <v>73</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F64" t="s">
         <v>87</v>
       </c>
-      <c r="K61" t="s">
+      <c r="K64" t="s">
         <v>97</v>
       </c>
-      <c r="P61" t="s">
+      <c r="P64" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
+      <c r="U64">
+        <v>-1185.9100000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21">
+      <c r="A65" t="s">
         <v>74</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F65" t="s">
         <v>88</v>
       </c>
-      <c r="K62" t="s">
+      <c r="K65" t="s">
         <v>98</v>
       </c>
-      <c r="P62" t="s">
+      <c r="P65" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
+      <c r="U65">
+        <v>0.22509999999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21">
+      <c r="A66" t="s">
         <v>75</v>
       </c>
-      <c r="F63" t="s">
+      <c r="F66" t="s">
         <v>89</v>
       </c>
-      <c r="K63" t="s">
+      <c r="K66" t="s">
         <v>99</v>
       </c>
-      <c r="P63" t="s">
+      <c r="P66" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
+      <c r="U66">
+        <v>0.20030000000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21">
+      <c r="A67" t="s">
         <v>76</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F67" t="s">
         <v>90</v>
       </c>
-      <c r="K64" t="s">
+      <c r="K67" t="s">
         <v>100</v>
       </c>
-      <c r="P64" t="s">
+      <c r="P67" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
+      <c r="U67">
+        <v>0.2185</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21">
+      <c r="A68" t="s">
         <v>77</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F68" t="s">
         <v>91</v>
       </c>
-      <c r="K65" t="s">
+      <c r="K68" t="s">
         <v>101</v>
       </c>
-      <c r="P65" t="s">
+      <c r="P68" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
+      <c r="U68">
+        <v>0.19939999999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21">
+      <c r="A69" t="s">
         <v>78</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F69" t="s">
         <v>92</v>
       </c>
-      <c r="K66" t="s">
+      <c r="K69" t="s">
         <v>102</v>
       </c>
-      <c r="P66" s="1" t="s">
+      <c r="P69" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
+      <c r="U69">
+        <v>2447.8200000000002</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21">
+      <c r="A70" t="s">
         <v>79</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F70" t="s">
         <v>93</v>
       </c>
-      <c r="K67" t="s">
+      <c r="K70" t="s">
         <v>103</v>
       </c>
-      <c r="P67" s="1" t="s">
+      <c r="P70" s="1" t="s">
         <v>110</v>
+      </c>
+      <c r="U70">
+        <v>2638.08</v>
       </c>
     </row>
   </sheetData>
@@ -2574,57 +3313,63 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{892655B2-6FB3-1B45-B9BF-28A8708E70F6}">
-  <dimension ref="A1:W18"/>
+  <dimension ref="A1:X27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="L4" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="4" ySplit="3" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="S12" sqref="S12"/>
+      <selection pane="bottomRight" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="20" width="10.83203125" style="21"/>
-    <col min="21" max="22" width="49" style="21" customWidth="1"/>
-    <col min="23" max="16384" width="10.83203125" style="21"/>
+    <col min="1" max="1" width="14.1640625" style="19" customWidth="1"/>
+    <col min="2" max="13" width="10.83203125" style="19"/>
+    <col min="14" max="14" width="5.5" style="19" customWidth="1"/>
+    <col min="15" max="17" width="10.83203125" style="19"/>
+    <col min="18" max="18" width="4.83203125" style="19" customWidth="1"/>
+    <col min="19" max="21" width="10.83203125" style="19"/>
+    <col min="22" max="23" width="49" style="19" customWidth="1"/>
+    <col min="24" max="16384" width="10.83203125" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="8" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" s="8" customFormat="1" ht="41" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>111</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="4"/>
       <c r="D1" s="5"/>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
       <c r="N1" s="7"/>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="P1" s="6"/>
-      <c r="R1" s="9" t="s">
+      <c r="P1" s="44"/>
+      <c r="Q1" s="6"/>
+      <c r="S1" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="S1" s="9"/>
-      <c r="U1" s="10" t="s">
+      <c r="T1" s="45"/>
+      <c r="V1" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="V1" s="10" t="s">
+      <c r="W1" s="9" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="A2" s="8" t="s">
         <v>117</v>
       </c>
@@ -2640,391 +3385,667 @@
       <c r="E2" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="F2" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="G2" s="31" t="s">
+      <c r="G2" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="H2" s="31" t="s">
+      <c r="H2" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="I2" s="31" t="s">
+      <c r="I2" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="J2" s="31" t="s">
+      <c r="J2" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="K2" s="32" t="s">
+      <c r="K2" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="L2" s="31" t="s">
+      <c r="L2" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="M2" s="31" t="s">
+      <c r="M2" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="O2" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="P2" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="Q2" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="S2" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="S2" s="7" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" s="11" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="12"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12" t="s">
+      <c r="T2" s="7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" s="10" customFormat="1" ht="40" customHeight="1">
+      <c r="B3" s="11"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="M3" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="O3" s="12" t="s">
+      <c r="P3" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="P3" s="12" t="s">
+      <c r="Q3" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="R3" s="12" t="s">
+      <c r="S3" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="S3" s="12" t="s">
+      <c r="T3" s="11" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:23" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
+    <row r="4" spans="1:24" s="10" customFormat="1" ht="40" hidden="1" customHeight="1">
+      <c r="B4" s="11"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+    </row>
+    <row r="5" spans="1:24" s="15" customFormat="1" ht="34" hidden="1">
+      <c r="A5" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B5" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C5" s="16">
         <v>1</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D5" s="17">
         <v>334</v>
       </c>
-      <c r="E4" s="28">
+      <c r="E5" s="25">
         <v>-12.69065975</v>
       </c>
-      <c r="F4" s="28">
+      <c r="F5" s="25">
         <v>-5.4230934299999998</v>
       </c>
-      <c r="G4" s="28">
+      <c r="G5" s="25">
         <v>-3.8382445600000001</v>
       </c>
-      <c r="H4" s="28">
+      <c r="H5" s="25">
         <v>-0.70495701</v>
       </c>
-      <c r="I4" s="28">
+      <c r="I5" s="25">
         <v>0.60290829999999995</v>
       </c>
-      <c r="J4" s="28">
+      <c r="J5" s="25">
         <v>-5.8906319999999998E-2</v>
       </c>
-      <c r="K4" s="30">
+      <c r="K5" s="27">
         <v>-0.63559155000000001</v>
       </c>
-      <c r="L4" s="28">
+      <c r="L5" s="25">
         <v>-0.39466126000000001</v>
       </c>
-      <c r="M4" s="28">
+      <c r="M5" s="25">
         <v>-1.44312258</v>
       </c>
-      <c r="N4" s="19"/>
-      <c r="O4" s="15">
+      <c r="N5" s="18"/>
+      <c r="P5" s="14">
         <v>-6.8361689999999996E-3</v>
       </c>
-      <c r="P4" s="15">
+      <c r="Q5" s="14">
         <v>7.4320150000000001E-2</v>
       </c>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19">
+      <c r="R5" s="18"/>
+      <c r="S5" s="18">
         <v>2.4820359999999999</v>
       </c>
-      <c r="S4" s="19">
+      <c r="T5" s="18">
         <v>2.6317370000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="28"/>
-      <c r="S5" s="28"/>
-    </row>
-    <row r="6" spans="1:23" ht="48" x14ac:dyDescent="0.2">
-      <c r="A6" s="20" t="s">
+    <row r="6" spans="1:24">
+      <c r="A6" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="25"/>
+      <c r="T6" s="25"/>
+    </row>
+    <row r="7" spans="1:24" ht="17" customHeight="1">
+      <c r="A7" s="42" t="s">
         <v>143</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C7" s="22">
         <v>0.42093999999999998</v>
       </c>
-      <c r="D6" s="29">
-        <f>C6*$D$4</f>
+      <c r="D7" s="26">
+        <f>C7*$D$5</f>
         <v>140.59395999999998</v>
       </c>
-      <c r="E6" s="28">
+      <c r="E7" s="25">
         <v>-11.640313000000001</v>
       </c>
-      <c r="F6" s="28">
+      <c r="F7" s="25">
         <v>-20.3894214</v>
       </c>
-      <c r="G6" s="28">
+      <c r="G7" s="25">
         <v>-8.9738743999999997</v>
       </c>
-      <c r="H6" s="28">
+      <c r="H7" s="25">
         <v>-3.3222238000000002</v>
       </c>
-      <c r="I6" s="36">
+      <c r="I7" s="32">
         <v>4.5254570000000003</v>
       </c>
-      <c r="J6" s="36">
+      <c r="J7" s="32">
         <v>0.30697860999999999</v>
       </c>
-      <c r="K6" s="28">
+      <c r="K7" s="25">
         <v>-0.70221909999999998</v>
       </c>
-      <c r="L6" s="28">
+      <c r="L7" s="25">
         <v>-0.36176405900000003</v>
       </c>
-      <c r="M6" s="28">
+      <c r="M7" s="25">
         <v>-0.10327769000000001</v>
       </c>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28">
+      <c r="N7" s="25"/>
+      <c r="O7" s="35" t="s">
+        <v>163</v>
+      </c>
+      <c r="P7" s="25">
         <v>-0.64955289999999999</v>
       </c>
-      <c r="P6" s="28">
+      <c r="Q7" s="25">
         <v>0.43317080000000002</v>
       </c>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="28">
+      <c r="R7" s="25"/>
+      <c r="S7" s="25">
         <v>1.7034480000000001</v>
       </c>
-      <c r="S6" s="28">
+      <c r="T7" s="25">
         <v>1.8344830000000001</v>
       </c>
-      <c r="U6" s="19" t="s">
+      <c r="V7" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="V6" s="33" t="s">
+      <c r="W7" s="30" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="32" x14ac:dyDescent="0.2">
-      <c r="A7" s="20"/>
-      <c r="B7" s="15" t="s">
+    <row r="8" spans="1:24" ht="17" customHeight="1">
+      <c r="A8" s="42"/>
+      <c r="B8" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="C7" s="25">
+      <c r="C8" s="22">
         <v>0.49490000000000001</v>
       </c>
-      <c r="D7" s="29">
-        <f t="shared" ref="D7:D8" si="0">C7*$D$4</f>
+      <c r="D8" s="26">
+        <f t="shared" ref="D8:D9" si="0">C8*$D$5</f>
         <v>165.29660000000001</v>
       </c>
-      <c r="E7" s="28">
+      <c r="E8" s="25">
         <v>-10.42797</v>
       </c>
-      <c r="F7" s="36">
+      <c r="F8" s="32">
         <v>-0.57105680000000003</v>
       </c>
-      <c r="G7" s="36">
+      <c r="G8" s="32">
         <v>0.1323531</v>
       </c>
-      <c r="H7" s="28">
+      <c r="H8" s="25">
         <v>0.97586010000000001</v>
       </c>
-      <c r="I7" s="36">
+      <c r="I8" s="32">
         <v>0.25324580000000002</v>
       </c>
-      <c r="J7" s="36">
+      <c r="J8" s="32">
         <v>-7.5042090000000006E-2</v>
       </c>
-      <c r="K7" s="28">
+      <c r="K8" s="25">
         <v>-0.2230232</v>
       </c>
-      <c r="L7" s="28">
+      <c r="L8" s="25">
         <v>-0.19180069899999999</v>
       </c>
-      <c r="M7" s="28">
+      <c r="M8" s="25">
         <v>-7.893008E-2</v>
       </c>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28">
+      <c r="N8" s="25"/>
+      <c r="O8" s="35" t="s">
+        <v>163</v>
+      </c>
+      <c r="P8" s="25">
         <v>0.53342789999999995</v>
       </c>
-      <c r="P7" s="28">
+      <c r="Q8" s="25">
         <v>-0.1798158</v>
       </c>
-      <c r="Q7" s="28"/>
-      <c r="R7" s="28">
+      <c r="R8" s="25"/>
+      <c r="S8" s="25">
         <v>3.1385540000000001</v>
       </c>
-      <c r="S7" s="28">
+      <c r="T8" s="25">
         <v>3.3433730000000002</v>
       </c>
-      <c r="U7" s="19" t="s">
+      <c r="V8" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="V7" s="33" t="s">
+      <c r="W8" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="W7" s="35"/>
-    </row>
-    <row r="8" spans="1:23" ht="96" x14ac:dyDescent="0.2">
-      <c r="A8" s="20"/>
-      <c r="B8" s="15" t="s">
+      <c r="X8" s="43"/>
+    </row>
+    <row r="9" spans="1:24" ht="17" customHeight="1">
+      <c r="A9" s="42"/>
+      <c r="B9" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="C8" s="25">
+      <c r="C9" s="22">
         <v>8.4150000000000003E-2</v>
       </c>
-      <c r="D8" s="29">
+      <c r="D9" s="26">
         <f t="shared" si="0"/>
         <v>28.106100000000001</v>
       </c>
-      <c r="E8" s="28">
+      <c r="E9" s="25">
         <v>-2.696348</v>
       </c>
-      <c r="F8" s="36">
+      <c r="F9" s="32">
         <v>0.31032169999999998</v>
       </c>
-      <c r="G8" s="36">
+      <c r="G9" s="32">
         <v>0.44767679999999999</v>
       </c>
-      <c r="H8" s="36">
+      <c r="H9" s="32">
         <v>0.44606059999999997</v>
       </c>
-      <c r="I8" s="36">
+      <c r="I9" s="32">
         <v>0.2872323</v>
       </c>
-      <c r="J8" s="36">
+      <c r="J9" s="32">
         <v>-7.8797300000000001E-2</v>
       </c>
-      <c r="K8" s="36">
+      <c r="K9" s="32">
         <v>-0.19402079999999999</v>
       </c>
-      <c r="L8" s="37">
+      <c r="L9" s="33">
         <v>2.6433239999999998E-3</v>
       </c>
-      <c r="M8" s="36">
+      <c r="M9" s="32">
         <v>-5.9434540000000001E-2</v>
       </c>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28">
+      <c r="N9" s="25"/>
+      <c r="O9" s="35" t="s">
+        <v>163</v>
+      </c>
+      <c r="P9" s="25">
         <v>0.14577709999999999</v>
       </c>
-      <c r="P8" s="28">
+      <c r="Q9" s="25">
         <v>-0.35380060000000002</v>
       </c>
-      <c r="Q8" s="28"/>
-      <c r="R8" s="28">
+      <c r="R9" s="25"/>
+      <c r="S9" s="25">
         <v>2.652174</v>
       </c>
-      <c r="S8" s="28">
+      <c r="T9" s="25">
         <v>2.5217390000000002</v>
       </c>
-      <c r="U8" s="19" t="s">
+      <c r="V9" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="V8" s="33" t="s">
+      <c r="W9" s="30" t="s">
         <v>157</v>
       </c>
-      <c r="W8" s="35"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="P10" s="26"/>
-      <c r="Q10" s="26" t="s">
+      <c r="X9" s="43"/>
+    </row>
+    <row r="11" spans="1:24">
+      <c r="A11" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="R10" s="26" t="s">
+      <c r="S11" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="S10" s="26" t="s">
+      <c r="T11" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="T10" s="26" t="s">
+      <c r="U11" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="U10" s="26" t="s">
+      <c r="V11" s="23" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="16" x14ac:dyDescent="0.2">
-      <c r="E11" s="22"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
-      <c r="S11" s="26"/>
-      <c r="T11" s="26"/>
-      <c r="U11" s="26"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="P12" s="27"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="H13" s="23"/>
-      <c r="P13" s="27"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="H14" s="23"/>
-      <c r="P14" s="27"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="H15" s="23"/>
-      <c r="P15" s="27"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="H16" s="23"/>
-    </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H17" s="23"/>
-    </row>
-    <row r="18" spans="8:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="H18" s="24"/>
+    <row r="12" spans="1:24">
+      <c r="A12" s="42" t="s">
+        <v>143</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="C12" s="22">
+        <v>0.44180000000000003</v>
+      </c>
+      <c r="D12" s="26">
+        <f>C12*186</f>
+        <v>82.174800000000005</v>
+      </c>
+      <c r="E12" s="25">
+        <v>-10.881772</v>
+      </c>
+      <c r="F12" s="25">
+        <v>-14.522799600000001</v>
+      </c>
+      <c r="G12" s="25">
+        <v>-5.9573099000000003</v>
+      </c>
+      <c r="H12" s="25">
+        <v>-1.9284246300000001</v>
+      </c>
+      <c r="I12" s="32">
+        <v>2.8258671099999999</v>
+      </c>
+      <c r="J12" s="32">
+        <v>0.17539927999999999</v>
+      </c>
+      <c r="K12" s="25">
+        <v>-0.47835821000000001</v>
+      </c>
+      <c r="L12" s="25">
+        <v>-0.36595101000000002</v>
+      </c>
+      <c r="M12" s="25">
+        <v>-0.12440830999999999</v>
+      </c>
+      <c r="O12" s="26">
+        <v>101539.24</v>
+      </c>
+      <c r="P12" s="25">
+        <v>-0.49099619999999999</v>
+      </c>
+      <c r="Q12" s="25">
+        <v>0.41289910000000002</v>
+      </c>
+      <c r="R12" s="40"/>
+      <c r="S12" s="25">
+        <v>1.995976</v>
+      </c>
+      <c r="T12" s="25">
+        <v>1.887324</v>
+      </c>
+      <c r="U12" s="40"/>
+      <c r="V12" s="23"/>
+    </row>
+    <row r="13" spans="1:24">
+      <c r="A13" s="42"/>
+      <c r="B13" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="C13" s="22">
+        <v>0.45729999999999998</v>
+      </c>
+      <c r="D13" s="26">
+        <f t="shared" ref="D13:D14" si="1">C13*186</f>
+        <v>85.0578</v>
+      </c>
+      <c r="E13" s="25">
+        <v>-12.817190999999999</v>
+      </c>
+      <c r="F13" s="32">
+        <v>-0.60046109999999997</v>
+      </c>
+      <c r="G13" s="32">
+        <v>0.84377049999999998</v>
+      </c>
+      <c r="H13" s="25">
+        <v>1.3487227900000001</v>
+      </c>
+      <c r="I13" s="32">
+        <v>0.66090320000000002</v>
+      </c>
+      <c r="J13" s="32">
+        <v>-0.19570884999999999</v>
+      </c>
+      <c r="K13" s="25">
+        <v>-0.32560886999999999</v>
+      </c>
+      <c r="L13" s="25">
+        <v>-0.34478217999999999</v>
+      </c>
+      <c r="M13" s="25">
+        <v>-8.9788960000000001E-2</v>
+      </c>
+      <c r="O13" s="26">
+        <v>92311.61</v>
+      </c>
+      <c r="P13" s="25">
+        <v>0.71331639999999996</v>
+      </c>
+      <c r="Q13" s="25">
+        <v>-0.42103190000000001</v>
+      </c>
+      <c r="R13" s="25"/>
+      <c r="S13" s="25">
+        <v>3.4887980000000001</v>
+      </c>
+      <c r="T13" s="25">
+        <v>3.4521380000000002</v>
+      </c>
+      <c r="U13" s="25"/>
+    </row>
+    <row r="14" spans="1:24">
+      <c r="A14" s="42"/>
+      <c r="B14" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="C14" s="22">
+        <v>0.1009</v>
+      </c>
+      <c r="D14" s="26">
+        <f t="shared" si="1"/>
+        <v>18.767400000000002</v>
+      </c>
+      <c r="E14" s="25">
+        <v>-2.5639789999999998</v>
+      </c>
+      <c r="F14" s="32">
+        <v>0.24552740000000001</v>
+      </c>
+      <c r="G14" s="32">
+        <v>0.133712</v>
+      </c>
+      <c r="H14" s="32">
+        <v>8.8732350000000001E-2</v>
+      </c>
+      <c r="I14" s="32">
+        <v>-4.3663109999999998E-2</v>
+      </c>
+      <c r="J14" s="32">
+        <v>-5.2120979999999997E-2</v>
+      </c>
+      <c r="K14" s="25">
+        <v>-5.8175310000000001E-2</v>
+      </c>
+      <c r="L14" s="32">
+        <v>-1.446212E-2</v>
+      </c>
+      <c r="M14" s="25">
+        <v>2.0631300000000002E-2</v>
+      </c>
+      <c r="O14" s="26">
+        <v>59568.97</v>
+      </c>
+      <c r="P14" s="25">
+        <v>0.3495588</v>
+      </c>
+      <c r="Q14" s="25">
+        <v>0.28717219999999999</v>
+      </c>
+      <c r="R14" s="25"/>
+      <c r="S14" s="25">
+        <v>2.9137930000000001</v>
+      </c>
+      <c r="T14" s="25">
+        <v>2.6896550000000001</v>
+      </c>
+      <c r="U14" s="25"/>
+    </row>
+    <row r="15" spans="1:24">
+      <c r="H15" s="20"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24"/>
+    </row>
+    <row r="16" spans="1:24">
+      <c r="H16" s="20"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="24"/>
+    </row>
+    <row r="17" spans="8:22">
+      <c r="H17" s="20"/>
+    </row>
+    <row r="18" spans="8:22">
+      <c r="H18" s="20"/>
+    </row>
+    <row r="19" spans="8:22" ht="16">
+      <c r="H19" s="21"/>
+    </row>
+    <row r="21" spans="8:22">
+      <c r="P21" s="36"/>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="36"/>
+      <c r="S21" s="36"/>
+      <c r="T21" s="36"/>
+      <c r="U21" s="36"/>
+      <c r="V21" s="36"/>
+    </row>
+    <row r="22" spans="8:22">
+      <c r="H22" s="36"/>
+      <c r="I22" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="J22" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="K22" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="L22" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="M22" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="N22" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="36"/>
+      <c r="R22" s="36"/>
+      <c r="S22" s="36"/>
+      <c r="T22" s="36"/>
+      <c r="U22" s="36"/>
+      <c r="V22" s="36"/>
+    </row>
+    <row r="23" spans="8:22">
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="36"/>
+      <c r="P23" s="37"/>
+      <c r="Q23" s="38"/>
+    </row>
+    <row r="24" spans="8:22">
+      <c r="H24" s="37"/>
+      <c r="I24" s="38"/>
+      <c r="P24" s="37"/>
+      <c r="Q24" s="38"/>
+    </row>
+    <row r="25" spans="8:22">
+      <c r="H25" s="37"/>
+      <c r="I25" s="38"/>
+      <c r="P25" s="37"/>
+      <c r="Q25" s="38"/>
+    </row>
+    <row r="26" spans="8:22">
+      <c r="H26" s="37"/>
+      <c r="I26" s="38"/>
+      <c r="P26" s="37"/>
+      <c r="Q26"/>
+      <c r="R26"/>
+      <c r="S26"/>
+      <c r="T26"/>
+      <c r="U26"/>
+      <c r="V26"/>
+    </row>
+    <row r="27" spans="8:22">
+      <c r="H27" s="37"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+      <c r="M27"/>
+      <c r="N27"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="W7:W8"/>
+  <mergeCells count="6">
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="X8:X9"/>
     <mergeCell ref="E1:M1"/>
-    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="S1:T1"/>
     <mergeCell ref="O1:P1"/>
-    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A7:A9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3038,61 +4059,61 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="87.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="B1" s="15" t="s">
+    <row r="1" spans="1:3" ht="34">
+      <c r="B1" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="34" t="s">
+    <row r="2" spans="1:3" ht="16">
+      <c r="A2" s="31" t="s">
         <v>151</v>
       </c>
       <c r="B2">
         <v>0.61</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="34" t="s">
+    <row r="3" spans="1:3" ht="16">
+      <c r="A3" s="31" t="s">
         <v>152</v>
       </c>
       <c r="B3">
         <v>0.93</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="34" t="s">
+    <row r="4" spans="1:3" ht="16">
+      <c r="A4" s="31" t="s">
         <v>153</v>
       </c>
       <c r="B4">
         <v>0.77</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="34" t="s">
+    <row r="5" spans="1:3" ht="16">
+      <c r="A5" s="31" t="s">
         <v>154</v>
       </c>
       <c r="C5">
         <v>0.68</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="34" t="s">
+    <row r="6" spans="1:3" ht="16">
+      <c r="A6" s="31" t="s">
         <v>155</v>
       </c>
       <c r="C6">
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="34" t="s">
+    <row r="7" spans="1:3" ht="16">
+      <c r="A7" s="31" t="s">
         <v>156</v>
       </c>
       <c r="C7">
@@ -3103,4 +4124,820 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3F63019-C71B-8741-BD09-FA8CAED43D19}">
+  <dimension ref="A1:T44"/>
+  <sheetViews>
+    <sheetView zoomScale="114" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="21.33203125" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="54"/>
+    <col min="14" max="14" width="10.83203125" style="54"/>
+    <col min="19" max="19" width="10.83203125" style="54"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19">
+      <c r="A1" s="46"/>
+      <c r="D1" s="51"/>
+    </row>
+    <row r="2" spans="1:19" ht="19">
+      <c r="A2" s="50" t="s">
+        <v>174</v>
+      </c>
+      <c r="D2" s="51"/>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="47"/>
+      <c r="B3" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="C3" s="49" t="s">
+        <v>178</v>
+      </c>
+      <c r="D3" s="52" t="s">
+        <v>169</v>
+      </c>
+      <c r="F3" s="49" t="s">
+        <v>186</v>
+      </c>
+      <c r="G3" s="49" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="48"/>
+      <c r="B4" s="48" t="s">
+        <v>170</v>
+      </c>
+      <c r="C4" s="48">
+        <v>1497</v>
+      </c>
+      <c r="D4" s="53">
+        <v>0.249002</v>
+      </c>
+      <c r="F4">
+        <v>271</v>
+      </c>
+      <c r="G4" s="54">
+        <f>F4/C4</f>
+        <v>0.18102872411489646</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="48"/>
+      <c r="B5" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="C5" s="48">
+        <v>1516</v>
+      </c>
+      <c r="D5" s="53">
+        <v>0.25216230000000001</v>
+      </c>
+      <c r="F5">
+        <v>567</v>
+      </c>
+      <c r="G5" s="54">
+        <f t="shared" ref="G5:G7" si="0">F5/C5</f>
+        <v>0.37401055408970979</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="48"/>
+      <c r="B6" s="48" t="s">
+        <v>172</v>
+      </c>
+      <c r="C6" s="48">
+        <v>1494</v>
+      </c>
+      <c r="D6" s="53">
+        <v>0.248503</v>
+      </c>
+      <c r="F6">
+        <v>507</v>
+      </c>
+      <c r="G6" s="54">
+        <f t="shared" si="0"/>
+        <v>0.3393574297188755</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="48"/>
+      <c r="B7" s="58" t="s">
+        <v>173</v>
+      </c>
+      <c r="C7" s="48">
+        <v>1505</v>
+      </c>
+      <c r="D7" s="53">
+        <v>0.25033270000000002</v>
+      </c>
+      <c r="F7">
+        <v>286</v>
+      </c>
+      <c r="G7" s="54">
+        <f t="shared" si="0"/>
+        <v>0.19003322259136213</v>
+      </c>
+      <c r="H7" s="57" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="19">
+      <c r="A10" s="50" t="s">
+        <v>177</v>
+      </c>
+      <c r="F10" s="50" t="s">
+        <v>181</v>
+      </c>
+      <c r="K10" s="50" t="s">
+        <v>182</v>
+      </c>
+      <c r="L10" s="47"/>
+      <c r="P10" s="50" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="47"/>
+      <c r="B11" s="47" t="s">
+        <v>179</v>
+      </c>
+      <c r="C11" s="47" t="s">
+        <v>180</v>
+      </c>
+      <c r="D11" s="55" t="s">
+        <v>169</v>
+      </c>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47" t="s">
+        <v>120</v>
+      </c>
+      <c r="H11" s="47" t="s">
+        <v>175</v>
+      </c>
+      <c r="I11" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="L11" s="47" t="s">
+        <v>120</v>
+      </c>
+      <c r="M11" s="47" t="s">
+        <v>175</v>
+      </c>
+      <c r="N11" s="55" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q11" s="47" t="s">
+        <v>120</v>
+      </c>
+      <c r="R11" s="47" t="s">
+        <v>175</v>
+      </c>
+      <c r="S11" s="55" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="48"/>
+      <c r="B12" s="48">
+        <v>1</v>
+      </c>
+      <c r="C12" s="48">
+        <v>15</v>
+      </c>
+      <c r="D12" s="56">
+        <v>4.5180720000000001E-2</v>
+      </c>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48">
+        <v>1</v>
+      </c>
+      <c r="H12" s="48">
+        <v>10</v>
+      </c>
+      <c r="I12" s="56">
+        <v>3.0211479999999999E-2</v>
+      </c>
+      <c r="L12" s="48">
+        <v>1</v>
+      </c>
+      <c r="M12" s="48">
+        <v>15</v>
+      </c>
+      <c r="N12" s="53">
+        <v>4.5180722999999999E-2</v>
+      </c>
+      <c r="Q12" s="48">
+        <v>1</v>
+      </c>
+      <c r="R12" s="48">
+        <v>9</v>
+      </c>
+      <c r="S12" s="53">
+        <v>2.7027026999999999E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="48"/>
+      <c r="B13" s="48">
+        <v>2</v>
+      </c>
+      <c r="C13" s="48">
+        <v>31</v>
+      </c>
+      <c r="D13" s="56">
+        <v>9.3373490000000003E-2</v>
+      </c>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48">
+        <v>2</v>
+      </c>
+      <c r="H13" s="48">
+        <v>30</v>
+      </c>
+      <c r="I13" s="56">
+        <v>9.0634440999999996E-2</v>
+      </c>
+      <c r="L13" s="48">
+        <v>2</v>
+      </c>
+      <c r="M13" s="48">
+        <v>27</v>
+      </c>
+      <c r="N13" s="53">
+        <v>8.1325301000000003E-2</v>
+      </c>
+      <c r="Q13" s="48">
+        <v>2</v>
+      </c>
+      <c r="R13" s="48">
+        <v>29</v>
+      </c>
+      <c r="S13" s="53">
+        <v>8.7087086999999994E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" s="48"/>
+      <c r="B14" s="48">
+        <v>3</v>
+      </c>
+      <c r="C14" s="48">
+        <v>58</v>
+      </c>
+      <c r="D14" s="56">
+        <v>0.17469879999999999</v>
+      </c>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48">
+        <v>3</v>
+      </c>
+      <c r="H14" s="48">
+        <v>54</v>
+      </c>
+      <c r="I14" s="56">
+        <v>0.16314199400000001</v>
+      </c>
+      <c r="L14" s="48">
+        <v>3</v>
+      </c>
+      <c r="M14" s="48">
+        <v>53</v>
+      </c>
+      <c r="N14" s="53">
+        <v>0.15963855399999999</v>
+      </c>
+      <c r="Q14" s="48">
+        <v>3</v>
+      </c>
+      <c r="R14" s="48">
+        <v>62</v>
+      </c>
+      <c r="S14" s="53">
+        <v>0.186186186</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" s="48"/>
+      <c r="B15" s="48">
+        <v>4</v>
+      </c>
+      <c r="C15" s="48">
+        <v>70</v>
+      </c>
+      <c r="D15" s="56">
+        <v>0.21084337</v>
+      </c>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48">
+        <v>4</v>
+      </c>
+      <c r="H15" s="48">
+        <v>82</v>
+      </c>
+      <c r="I15" s="56">
+        <v>0.24773413899999999</v>
+      </c>
+      <c r="L15" s="48">
+        <v>4</v>
+      </c>
+      <c r="M15" s="48">
+        <v>85</v>
+      </c>
+      <c r="N15" s="53">
+        <v>0.25602409599999998</v>
+      </c>
+      <c r="Q15" s="48">
+        <v>4</v>
+      </c>
+      <c r="R15" s="48">
+        <v>69</v>
+      </c>
+      <c r="S15" s="53">
+        <v>0.207207207</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" s="48"/>
+      <c r="B16" s="48">
+        <v>5</v>
+      </c>
+      <c r="C16" s="48">
+        <v>65</v>
+      </c>
+      <c r="D16" s="56">
+        <v>0.19578313</v>
+      </c>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48">
+        <v>5</v>
+      </c>
+      <c r="H16" s="48">
+        <v>65</v>
+      </c>
+      <c r="I16" s="56">
+        <v>0.196374622</v>
+      </c>
+      <c r="L16" s="48">
+        <v>5</v>
+      </c>
+      <c r="M16" s="48">
+        <v>62</v>
+      </c>
+      <c r="N16" s="53">
+        <v>0.186746988</v>
+      </c>
+      <c r="Q16" s="48">
+        <v>5</v>
+      </c>
+      <c r="R16" s="48">
+        <v>68</v>
+      </c>
+      <c r="S16" s="53">
+        <v>0.204204204</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" s="48"/>
+      <c r="B17" s="48">
+        <v>6</v>
+      </c>
+      <c r="C17" s="48">
+        <v>42</v>
+      </c>
+      <c r="D17" s="56">
+        <v>0.12650602</v>
+      </c>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48">
+        <v>6</v>
+      </c>
+      <c r="H17" s="48">
+        <v>40</v>
+      </c>
+      <c r="I17" s="56">
+        <v>0.120845921</v>
+      </c>
+      <c r="L17" s="48">
+        <v>6</v>
+      </c>
+      <c r="M17" s="48">
+        <v>42</v>
+      </c>
+      <c r="N17" s="53">
+        <v>0.12650602399999999</v>
+      </c>
+      <c r="Q17" s="48">
+        <v>6</v>
+      </c>
+      <c r="R17" s="48">
+        <v>56</v>
+      </c>
+      <c r="S17" s="53">
+        <v>0.16816816800000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" s="48"/>
+      <c r="B18" s="48">
+        <v>7</v>
+      </c>
+      <c r="C18" s="48">
+        <v>32</v>
+      </c>
+      <c r="D18" s="56">
+        <v>9.6385540000000006E-2</v>
+      </c>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48">
+        <v>7</v>
+      </c>
+      <c r="H18" s="48">
+        <v>32</v>
+      </c>
+      <c r="I18" s="56">
+        <v>9.6676736999999999E-2</v>
+      </c>
+      <c r="L18" s="48">
+        <v>7</v>
+      </c>
+      <c r="M18" s="48">
+        <v>30</v>
+      </c>
+      <c r="N18" s="53">
+        <v>9.0361445999999998E-2</v>
+      </c>
+      <c r="Q18" s="48">
+        <v>7</v>
+      </c>
+      <c r="R18" s="48">
+        <v>19</v>
+      </c>
+      <c r="S18" s="53">
+        <v>5.7057057000000001E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" s="48"/>
+      <c r="B19" s="48">
+        <v>8</v>
+      </c>
+      <c r="C19" s="48">
+        <v>10</v>
+      </c>
+      <c r="D19" s="56">
+        <v>3.0120480000000002E-2</v>
+      </c>
+      <c r="F19" s="48"/>
+      <c r="G19" s="48">
+        <v>8</v>
+      </c>
+      <c r="H19" s="48">
+        <v>12</v>
+      </c>
+      <c r="I19" s="56">
+        <v>3.6253776000000001E-2</v>
+      </c>
+      <c r="L19" s="48">
+        <v>8</v>
+      </c>
+      <c r="M19" s="48">
+        <v>12</v>
+      </c>
+      <c r="N19" s="53">
+        <v>3.6144577999999997E-2</v>
+      </c>
+      <c r="Q19" s="48">
+        <v>8</v>
+      </c>
+      <c r="R19" s="48">
+        <v>14</v>
+      </c>
+      <c r="S19" s="53">
+        <v>4.2042042000000002E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="48"/>
+      <c r="B20" s="48">
+        <v>9</v>
+      </c>
+      <c r="C20" s="48">
+        <v>5</v>
+      </c>
+      <c r="D20" s="56">
+        <v>1.5060240000000001E-2</v>
+      </c>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48">
+        <v>9</v>
+      </c>
+      <c r="H20" s="48">
+        <v>3</v>
+      </c>
+      <c r="I20" s="56">
+        <v>9.0634440000000004E-3</v>
+      </c>
+      <c r="L20" s="48">
+        <v>9</v>
+      </c>
+      <c r="M20" s="48">
+        <v>3</v>
+      </c>
+      <c r="N20" s="53">
+        <v>9.0361450000000006E-3</v>
+      </c>
+      <c r="Q20" s="48">
+        <v>9</v>
+      </c>
+      <c r="R20" s="48">
+        <v>4</v>
+      </c>
+      <c r="S20" s="53">
+        <v>1.2012012000000001E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="48"/>
+      <c r="B21" s="48">
+        <v>10</v>
+      </c>
+      <c r="C21" s="48">
+        <v>4</v>
+      </c>
+      <c r="D21" s="56">
+        <v>1.204819E-2</v>
+      </c>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48">
+        <v>11</v>
+      </c>
+      <c r="H21" s="48">
+        <v>3</v>
+      </c>
+      <c r="I21" s="56">
+        <v>9.0634440000000004E-3</v>
+      </c>
+      <c r="L21" s="48">
+        <v>10</v>
+      </c>
+      <c r="M21" s="48">
+        <v>2</v>
+      </c>
+      <c r="N21" s="53">
+        <v>6.0240959999999996E-3</v>
+      </c>
+      <c r="Q21" s="48">
+        <v>10</v>
+      </c>
+      <c r="R21" s="48">
+        <v>3</v>
+      </c>
+      <c r="S21" s="53">
+        <v>9.0090090000000001E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="48"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="46">
+        <f>SUM(C12:C21)</f>
+        <v>332</v>
+      </c>
+      <c r="D22" s="51"/>
+      <c r="H22">
+        <f>SUM(H12:H21)</f>
+        <v>331</v>
+      </c>
+      <c r="L22" s="48">
+        <v>11</v>
+      </c>
+      <c r="M22" s="48">
+        <v>1</v>
+      </c>
+      <c r="N22" s="53">
+        <v>3.0120479999999998E-3</v>
+      </c>
+      <c r="Q22" s="48"/>
+      <c r="R22" s="46">
+        <f>SUM(R11:R21)</f>
+        <v>333</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>184</v>
+      </c>
+      <c r="F23" s="48"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
+      <c r="L23" s="48"/>
+      <c r="M23" s="46">
+        <f>SUM(M12:M22)</f>
+        <v>332</v>
+      </c>
+      <c r="N23" s="51"/>
+      <c r="O23" s="46"/>
+      <c r="Q23" s="48"/>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q24" s="48"/>
+      <c r="R24" s="46"/>
+      <c r="S24" s="51"/>
+      <c r="T24" s="46"/>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="I27" s="36"/>
+      <c r="J27" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="K27" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="L27" s="36" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="36"/>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="I29" s="37">
+        <v>1</v>
+      </c>
+      <c r="J29" s="38"/>
+      <c r="K29" s="38"/>
+      <c r="L29" s="38"/>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="I30" s="37">
+        <v>2</v>
+      </c>
+      <c r="J30" s="38"/>
+      <c r="K30" s="38"/>
+      <c r="L30" s="38"/>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="I31" s="37">
+        <v>3</v>
+      </c>
+      <c r="J31" s="38"/>
+      <c r="K31" s="38"/>
+      <c r="L31" s="38"/>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="E32" s="36"/>
+      <c r="F32" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="G32" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="H32" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="I32" s="37">
+        <v>4</v>
+      </c>
+      <c r="J32" s="38"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="38"/>
+    </row>
+    <row r="33" spans="5:12">
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="37">
+        <v>5</v>
+      </c>
+      <c r="J33" s="38"/>
+      <c r="K33" s="38"/>
+      <c r="L33" s="38"/>
+    </row>
+    <row r="34" spans="5:12">
+      <c r="E34" s="37">
+        <v>1</v>
+      </c>
+      <c r="F34" s="38"/>
+      <c r="G34" s="38"/>
+      <c r="I34" s="37">
+        <v>6</v>
+      </c>
+      <c r="J34" s="38"/>
+      <c r="K34" s="38"/>
+      <c r="L34" s="38"/>
+    </row>
+    <row r="35" spans="5:12">
+      <c r="E35" s="37">
+        <v>2</v>
+      </c>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38"/>
+      <c r="I35" s="37">
+        <v>7</v>
+      </c>
+      <c r="J35" s="38"/>
+      <c r="K35" s="38"/>
+      <c r="L35" s="38"/>
+    </row>
+    <row r="36" spans="5:12">
+      <c r="E36" s="37">
+        <v>3</v>
+      </c>
+      <c r="F36" s="38"/>
+      <c r="G36" s="38"/>
+      <c r="I36" s="37">
+        <v>8</v>
+      </c>
+      <c r="J36" s="38"/>
+      <c r="K36" s="38"/>
+      <c r="L36" s="38"/>
+    </row>
+    <row r="37" spans="5:12">
+      <c r="E37" s="37">
+        <v>4</v>
+      </c>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38"/>
+      <c r="I37" s="37">
+        <v>9</v>
+      </c>
+      <c r="J37" s="38"/>
+      <c r="K37" s="38"/>
+      <c r="L37" s="38"/>
+    </row>
+    <row r="38" spans="5:12">
+      <c r="E38" s="37">
+        <v>5</v>
+      </c>
+      <c r="F38" s="38"/>
+      <c r="G38" s="38"/>
+      <c r="I38" s="37">
+        <v>10</v>
+      </c>
+      <c r="J38" s="38"/>
+      <c r="K38" s="38"/>
+      <c r="L38" s="38"/>
+    </row>
+    <row r="39" spans="5:12">
+      <c r="E39" s="37">
+        <v>6</v>
+      </c>
+      <c r="F39" s="38"/>
+      <c r="G39" s="38"/>
+      <c r="I39" s="37" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="40" spans="5:12">
+      <c r="E40" s="37">
+        <v>7</v>
+      </c>
+      <c r="F40" s="38"/>
+      <c r="G40" s="38"/>
+    </row>
+    <row r="41" spans="5:12">
+      <c r="E41" s="37">
+        <v>8</v>
+      </c>
+      <c r="F41" s="38"/>
+      <c r="G41" s="38"/>
+    </row>
+    <row r="42" spans="5:12">
+      <c r="E42" s="37">
+        <v>9</v>
+      </c>
+      <c r="F42" s="38"/>
+      <c r="G42" s="38"/>
+    </row>
+    <row r="43" spans="5:12">
+      <c r="E43" s="37">
+        <v>10</v>
+      </c>
+      <c r="F43" s="38"/>
+      <c r="G43" s="38"/>
+    </row>
+    <row r="44" spans="5:12">
+      <c r="E44" s="37" t="s">
+        <v>176</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>